--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.71953218945127</v>
+        <v>10.105724</v>
       </c>
       <c r="H2">
-        <v>8.71953218945127</v>
+        <v>30.317172</v>
       </c>
       <c r="I2">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J2">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N2">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O2">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P2">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q2">
-        <v>146.5829569150674</v>
+        <v>175.1927470496334</v>
       </c>
       <c r="R2">
-        <v>146.5829569150674</v>
+        <v>1576.7347234467</v>
       </c>
       <c r="S2">
-        <v>0.2353321126438137</v>
+        <v>0.2517678955207038</v>
       </c>
       <c r="T2">
-        <v>0.2353321126438137</v>
+        <v>0.2517678955207038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.71953218945127</v>
+        <v>10.105724</v>
       </c>
       <c r="H3">
-        <v>8.71953218945127</v>
+        <v>30.317172</v>
       </c>
       <c r="I3">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J3">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N3">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P3">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q3">
-        <v>79.06784403695492</v>
+        <v>91.73680486344269</v>
       </c>
       <c r="R3">
-        <v>79.06784403695492</v>
+        <v>825.631243770984</v>
       </c>
       <c r="S3">
-        <v>0.1269397423207221</v>
+        <v>0.1318341237934871</v>
       </c>
       <c r="T3">
-        <v>0.1269397423207221</v>
+        <v>0.1318341237934871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.71953218945127</v>
+        <v>10.105724</v>
       </c>
       <c r="H4">
-        <v>8.71953218945127</v>
+        <v>30.317172</v>
       </c>
       <c r="I4">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J4">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N4">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P4">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q4">
-        <v>99.96873027157766</v>
+        <v>116.125824422056</v>
       </c>
       <c r="R4">
-        <v>99.96873027157766</v>
+        <v>1045.132419798504</v>
       </c>
       <c r="S4">
-        <v>0.1604951420563934</v>
+        <v>0.1668833608851673</v>
       </c>
       <c r="T4">
-        <v>0.1604951420563934</v>
+        <v>0.1668833608851673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.90823209944779</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H5">
-        <v>4.90823209944779</v>
+        <v>15.028134</v>
       </c>
       <c r="I5">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J5">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N5">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O5">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P5">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q5">
-        <v>82.51167135238053</v>
+        <v>86.84253526318335</v>
       </c>
       <c r="R5">
-        <v>82.51167135238053</v>
+        <v>781.5828173686501</v>
       </c>
       <c r="S5">
-        <v>0.1324686467361867</v>
+        <v>0.1248006136846517</v>
       </c>
       <c r="T5">
-        <v>0.1324686467361867</v>
+        <v>0.1248006136846516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.90823209944779</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H6">
-        <v>4.90823209944779</v>
+        <v>15.028134</v>
       </c>
       <c r="I6">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J6">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N6">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O6">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P6">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q6">
-        <v>44.50735678294873</v>
+        <v>45.47366740603868</v>
       </c>
       <c r="R6">
-        <v>44.50735678294873</v>
+        <v>409.2630066543481</v>
       </c>
       <c r="S6">
-        <v>0.07145448911903247</v>
+        <v>0.06534979179921903</v>
       </c>
       <c r="T6">
-        <v>0.07145448911903247</v>
+        <v>0.06534979179921901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.90823209944779</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H7">
-        <v>4.90823209944779</v>
+        <v>15.028134</v>
       </c>
       <c r="I7">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J7">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N7">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O7">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P7">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q7">
-        <v>56.27248345428425</v>
+        <v>57.563233479532</v>
       </c>
       <c r="R7">
-        <v>56.27248345428425</v>
+        <v>518.069101315788</v>
       </c>
       <c r="S7">
-        <v>0.09034285222315314</v>
+        <v>0.08272359670462183</v>
       </c>
       <c r="T7">
-        <v>0.09034285222315314</v>
+        <v>0.08272359670462182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.05181234685054</v>
+        <v>3.242740666666667</v>
       </c>
       <c r="H8">
-        <v>3.05181234685054</v>
+        <v>9.728222000000001</v>
       </c>
       <c r="I8">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121494</v>
       </c>
       <c r="J8">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121493</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N8">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O8">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P8">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q8">
-        <v>51.30363281328918</v>
+        <v>56.21612517449445</v>
       </c>
       <c r="R8">
-        <v>51.30363281328918</v>
+        <v>505.94512657045</v>
       </c>
       <c r="S8">
-        <v>0.0823655938612928</v>
+        <v>0.0807876796720424</v>
       </c>
       <c r="T8">
-        <v>0.0823655938612928</v>
+        <v>0.08078767967204238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.05181234685054</v>
+        <v>3.242740666666667</v>
       </c>
       <c r="H9">
-        <v>3.05181234685054</v>
+        <v>9.728222000000001</v>
       </c>
       <c r="I9">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121494</v>
       </c>
       <c r="J9">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121493</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N9">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O9">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P9">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q9">
-        <v>27.67352851369165</v>
+        <v>29.43665072989823</v>
       </c>
       <c r="R9">
-        <v>27.67352851369165</v>
+        <v>264.9298565690841</v>
       </c>
       <c r="S9">
-        <v>0.04442856159061728</v>
+        <v>0.04230314171250949</v>
       </c>
       <c r="T9">
-        <v>0.04442856159061728</v>
+        <v>0.04230314171250948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.05181234685054</v>
+        <v>3.242740666666667</v>
       </c>
       <c r="H10">
-        <v>3.05181234685054</v>
+        <v>9.728222000000001</v>
       </c>
       <c r="I10">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121494</v>
       </c>
       <c r="J10">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121493</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N10">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O10">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P10">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q10">
-        <v>34.98878136041051</v>
+        <v>37.26263781828933</v>
       </c>
       <c r="R10">
-        <v>34.98878136041051</v>
+        <v>335.363740364604</v>
       </c>
       <c r="S10">
-        <v>0.05617285944878844</v>
+        <v>0.05354979622759749</v>
       </c>
       <c r="T10">
-        <v>0.05617285944878844</v>
+        <v>0.05354979622759748</v>
       </c>
     </row>
   </sheetData>
